--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\thesingleseater\writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D50AA4-D382-4A4D-9271-50F2A104D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EF4A9-1F14-4A29-A1A9-EF8619E05475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Race</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>Post Laguna Seca</t>
+  </si>
+  <si>
+    <t>Post Long Beach</t>
   </si>
 </sst>
 </file>
@@ -316,9 +320,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Post Indy</c:v>
                 </c:pt>
@@ -348,18 +352,21 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Post Laguna Seca</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Post Long Beach</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>68.2</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
@@ -372,6 +379,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,9 +488,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Post Indy</c:v>
                 </c:pt>
@@ -510,16 +520,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Post Laguna Seca</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Post Long Beach</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -534,6 +547,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,9 +656,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Post Indy</c:v>
                 </c:pt>
@@ -672,16 +688,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Post Laguna Seca</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Post Long Beach</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -696,6 +715,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,9 +824,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Post Indy</c:v>
                 </c:pt>
@@ -834,16 +856,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Post Laguna Seca</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Post Long Beach</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -858,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D259B2-96A4-411F-B9DE-A3BCEDF2F1C7}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1953,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2037,6 +2065,18 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -2056,6 +2096,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EF4A9-1F14-4A29-A1A9-EF8619E05475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E882414-1267-4506-BDAC-E97ACBD2D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D259B2-96A4-411F-B9DE-A3BCEDF2F1C7}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E882414-1267-4506-BDAC-E97ACBD2D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544C49A-BEE8-4F6D-BCB3-2A3A238A8749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -549,7 +548,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +716,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +884,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D259B2-96A4-411F-B9DE-A3BCEDF2F1C7}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2069,13 +2068,13 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544C49A-BEE8-4F6D-BCB3-2A3A238A8749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF5EFE-259E-4503-A00B-BD33448F73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -382,6 +382,9 @@
                 <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -550,6 +553,9 @@
                 <c:pt idx="5">
                   <c:v>53</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -718,6 +724,9 @@
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,6 +894,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,7 +1962,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,6 +2093,18 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF5EFE-259E-4503-A00B-BD33448F73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B1C21-40C9-4F4B-AF00-09F2291A16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -385,6 +385,9 @@
                 <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -556,6 +559,9 @@
                 <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -727,6 +733,9 @@
                 <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -897,6 +906,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1974,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2110,6 +2122,18 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B1C21-40C9-4F4B-AF00-09F2291A16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF763A79-BFBB-45BF-BA0C-0DD460B6FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -388,6 +388,9 @@
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -562,6 +565,9 @@
                 <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -736,6 +742,9 @@
                 <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -909,6 +918,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1986,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,6 +2151,18 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">

--- a/datasets/championship sim.xlsx
+++ b/datasets/championship sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewb\Desktop\Projects\thesingleseater\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF763A79-BFBB-45BF-BA0C-0DD460B6FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655D6981-1594-49DE-BC0F-46FC9787F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1D30ADA-36C5-4A0D-9E2A-D38BD0582B76}"/>
   </bookViews>
@@ -391,6 +391,9 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -568,6 +571,9 @@
                 <c:pt idx="8">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -745,6 +751,9 @@
                 <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -921,6 +930,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,7 +1998,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2168,6 +2180,18 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>97.8</v>
+      </c>
+      <c r="D11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
